--- a/resource/excel/Reinforcements.xlsx
+++ b/resource/excel/Reinforcements.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -59,13 +59,16 @@
     <t>50:198;52:360;49:260;53:225</t>
   </si>
   <si>
+    <t>99:500</t>
+  </si>
+  <si>
     <t>援军I</t>
   </si>
   <si>
     <t>50:330;52:600;49:390;53:375</t>
   </si>
   <si>
-    <t>100:558</t>
+    <t>100:558;99:1000</t>
   </si>
   <si>
     <t>援军II</t>
@@ -74,7 +77,7 @@
     <t>50:396;52:720;49:520;53:600</t>
   </si>
   <si>
-    <t>100:1116</t>
+    <t>100:1116;99:2000</t>
   </si>
   <si>
     <t>援军III</t>
@@ -88,9 +91,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -102,6 +105,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -118,41 +172,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -161,7 +180,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,7 +212,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,29 +248,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -267,79 +270,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,103 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +461,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,26 +523,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,41 +561,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -566,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,133 +581,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,7 +1075,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1148,9 +1151,11 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1164,13 +1169,13 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1184,13 +1189,13 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1219,7 +1224,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/resource/excel/Reinforcements.xlsx
+++ b/resource/excel/Reinforcements.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>50:396;52:720;49:520;53:600</t>
-  </si>
-  <si>
-    <t>100:1116;99:2000</t>
   </si>
   <si>
     <t>援军III</t>
@@ -91,10 +88,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -106,6 +103,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -113,14 +147,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,29 +155,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,7 +177,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,7 +185,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,42 +215,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -270,43 +267,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,139 +405,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,11 +463,74 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,71 +553,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,148 +563,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,7 +1072,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1192,10 +1189,10 @@
         <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -1224,7 +1221,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/resource/excel/Reinforcements.xlsx
+++ b/resource/excel/Reinforcements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13005"/>
+    <workbookView windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="ReinforcementsData" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -23,9 +23,6 @@
     <t>SquadConf</t>
   </si>
   <si>
-    <t>SpecialSquadConf</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -56,25 +53,19 @@
     <t>Partial:3;CustomEnum:_Type;</t>
   </si>
   <si>
-    <t>50:198;52:360;49:260;53:225</t>
-  </si>
-  <si>
-    <t>99:500</t>
+    <t>50:198;52:360;49:260;53:225;99:500</t>
   </si>
   <si>
     <t>援军I</t>
   </si>
   <si>
-    <t>50:330;52:600;49:390;53:375</t>
-  </si>
-  <si>
-    <t>100:558;99:1000</t>
+    <t>50:330;52:600;49:390;53:375;100:558;99:1000</t>
   </si>
   <si>
     <t>援军II</t>
   </si>
   <si>
-    <t>50:396;52:720;49:520;53:600</t>
+    <t>50:396;52:720;49:520;53:600;100:600;99:1100</t>
   </si>
   <si>
     <t>援军III</t>
@@ -88,8 +79,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -103,21 +94,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,58 +159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -216,7 +192,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,9 +222,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,187 +258,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,11 +452,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,6 +472,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +496,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,196 +549,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,9 +707,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,23 +1057,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="46.75" customWidth="1"/>
-    <col min="2" max="3" width="38.875" customWidth="1"/>
-    <col min="4" max="4" width="23.375" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,100 +1092,85 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="4:4">
+      <c r="D3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="5:5">
-      <c r="E3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>75</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
+      <c r="E7">
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
         <v>2</v>
       </c>
     </row>
@@ -1221,7 +1194,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1">
         <v>0</v>
